--- a/data/pca/factorExposure/factorExposure_2012-10-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-03.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001523076806526944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001905022001806944</v>
+      </c>
+      <c r="C2">
+        <v>0.02812127642298103</v>
+      </c>
+      <c r="D2">
+        <v>0.005828257025574271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0004690903191006206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006970477505720117</v>
+      </c>
+      <c r="C4">
+        <v>0.08271821265578216</v>
+      </c>
+      <c r="D4">
+        <v>0.07204527994841749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001987597381787778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01424453417797163</v>
+      </c>
+      <c r="C6">
+        <v>0.1141633694553777</v>
+      </c>
+      <c r="D6">
+        <v>0.02479533300347934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0006274673470182399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004983918353723716</v>
+      </c>
+      <c r="C7">
+        <v>0.05779038896427902</v>
+      </c>
+      <c r="D7">
+        <v>0.03424322142841098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0006092757763709279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.00591915601753013</v>
+      </c>
+      <c r="C8">
+        <v>0.03538102230898141</v>
+      </c>
+      <c r="D8">
+        <v>0.03978753417763654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002718827165611324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005115180005695902</v>
+      </c>
+      <c r="C9">
+        <v>0.07013811257766653</v>
+      </c>
+      <c r="D9">
+        <v>0.07688658942806471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001310063624733474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005251000354362625</v>
+      </c>
+      <c r="C10">
+        <v>0.05570813479098023</v>
+      </c>
+      <c r="D10">
+        <v>-0.1937625751914923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003372869315877125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005570618489933273</v>
+      </c>
+      <c r="C11">
+        <v>0.07877565247330422</v>
+      </c>
+      <c r="D11">
+        <v>0.0660403798564512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.00181644910864775</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004105539912274816</v>
+      </c>
+      <c r="C12">
+        <v>0.0642946626481485</v>
+      </c>
+      <c r="D12">
+        <v>0.05226786233683126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002585533599720643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008252444570602747</v>
+      </c>
+      <c r="C13">
+        <v>0.06687904028257442</v>
+      </c>
+      <c r="D13">
+        <v>0.06296790295085955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002331108054210682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006731406205792397</v>
+      </c>
+      <c r="C14">
+        <v>0.0422389927106545</v>
+      </c>
+      <c r="D14">
+        <v>0.01270642830312839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0003028418487050911</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005834399288059994</v>
+      </c>
+      <c r="C15">
+        <v>0.04006627062763929</v>
+      </c>
+      <c r="D15">
+        <v>0.02983699501557628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0009033073918983043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004963489035329741</v>
+      </c>
+      <c r="C16">
+        <v>0.06368737945951826</v>
+      </c>
+      <c r="D16">
+        <v>0.05877405838573958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0004397169016799532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008793182013018389</v>
+      </c>
+      <c r="C20">
+        <v>0.06290696109031131</v>
+      </c>
+      <c r="D20">
+        <v>0.05214388201650951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005862190630698197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009208426965750804</v>
+      </c>
+      <c r="C21">
+        <v>0.01957138900489888</v>
+      </c>
+      <c r="D21">
+        <v>0.04310366872060627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02373151817726308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007142833523985296</v>
+      </c>
+      <c r="C22">
+        <v>0.08591483578716493</v>
+      </c>
+      <c r="D22">
+        <v>0.1269744779805616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02351707436692767</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006955540806371611</v>
+      </c>
+      <c r="C23">
+        <v>0.08636766465553047</v>
+      </c>
+      <c r="D23">
+        <v>0.1278825387711234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002738829387699382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005540886768344509</v>
+      </c>
+      <c r="C24">
+        <v>0.0754626503386856</v>
+      </c>
+      <c r="D24">
+        <v>0.06923082605416238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004557952586916446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003086055733693876</v>
+      </c>
+      <c r="C25">
+        <v>0.07736049808996709</v>
+      </c>
+      <c r="D25">
+        <v>0.06776682275045098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003744247615359273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003550677964431173</v>
+      </c>
+      <c r="C26">
+        <v>0.03833130597811586</v>
+      </c>
+      <c r="D26">
+        <v>0.02536892321747831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007964980685272832</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001478876804290885</v>
+      </c>
+      <c r="C28">
+        <v>0.1049275796003993</v>
+      </c>
+      <c r="D28">
+        <v>-0.3227326080098111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001380606489444563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002628328164865476</v>
+      </c>
+      <c r="C29">
+        <v>0.04859715186471011</v>
+      </c>
+      <c r="D29">
+        <v>0.01134605744800309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006129285364447773</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009575816346451459</v>
+      </c>
+      <c r="C30">
+        <v>0.1408062560376208</v>
+      </c>
+      <c r="D30">
+        <v>0.1105348761152939</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001275339783215429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006234193073153463</v>
+      </c>
+      <c r="C31">
+        <v>0.04285846281706257</v>
+      </c>
+      <c r="D31">
+        <v>0.03374144936122682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002046552461977265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003412239322790056</v>
+      </c>
+      <c r="C32">
+        <v>0.03942094511663704</v>
+      </c>
+      <c r="D32">
+        <v>0.0235864500832712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001660498235699259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009079736041874049</v>
+      </c>
+      <c r="C33">
+        <v>0.08801167581463065</v>
+      </c>
+      <c r="D33">
+        <v>0.06643318875593845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.003668516989015966</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004139602324254863</v>
+      </c>
+      <c r="C34">
+        <v>0.0574016835074735</v>
+      </c>
+      <c r="D34">
+        <v>0.05869109061017601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0006454218956035185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005205975657400749</v>
+      </c>
+      <c r="C35">
+        <v>0.04003958339004902</v>
+      </c>
+      <c r="D35">
+        <v>0.0215104101823773</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005571482352775402</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00162637576133261</v>
+      </c>
+      <c r="C36">
+        <v>0.02381548980476027</v>
+      </c>
+      <c r="D36">
+        <v>0.02731211205747443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-2.738184281665007e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009345404729048977</v>
+      </c>
+      <c r="C38">
+        <v>0.03821002374980587</v>
+      </c>
+      <c r="D38">
+        <v>0.01521707053031748</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01381161912285742</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001491989575058089</v>
+      </c>
+      <c r="C39">
+        <v>0.113069852342895</v>
+      </c>
+      <c r="D39">
+        <v>0.07796694649643132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008281783704356012</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003814426945752862</v>
+      </c>
+      <c r="C40">
+        <v>0.0911718228931348</v>
+      </c>
+      <c r="D40">
+        <v>0.0170441699317622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004300135825471683</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007226750496544003</v>
+      </c>
+      <c r="C41">
+        <v>0.03867416610011559</v>
+      </c>
+      <c r="D41">
+        <v>0.04015886494332145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002905717420399126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003838161387116987</v>
+      </c>
+      <c r="C43">
+        <v>0.05236560877502219</v>
+      </c>
+      <c r="D43">
+        <v>0.02884307706367874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01401316463523196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002699641648452923</v>
+      </c>
+      <c r="C44">
+        <v>0.1038022275800138</v>
+      </c>
+      <c r="D44">
+        <v>0.06923953048092721</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001043048124143889</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001578303431251951</v>
+      </c>
+      <c r="C46">
+        <v>0.03226300462013304</v>
+      </c>
+      <c r="D46">
+        <v>0.03566783174029772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001717764373270164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002070796920191936</v>
+      </c>
+      <c r="C47">
+        <v>0.03479061307674197</v>
+      </c>
+      <c r="D47">
+        <v>0.02296159664057211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.002922636135404567</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006486418721747865</v>
+      </c>
+      <c r="C48">
+        <v>0.02969276517950261</v>
+      </c>
+      <c r="D48">
+        <v>0.03756904128521302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.007303140400533733</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01765915863895584</v>
+      </c>
+      <c r="C49">
+        <v>0.1900876149012451</v>
+      </c>
+      <c r="D49">
+        <v>0.006823208809938459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006218341974731904</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003517289728456931</v>
+      </c>
+      <c r="C50">
+        <v>0.04171311524650511</v>
+      </c>
+      <c r="D50">
+        <v>0.04079713787977127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>4.904365856732085e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004938970645542945</v>
+      </c>
+      <c r="C51">
+        <v>0.02624881372495189</v>
+      </c>
+      <c r="D51">
+        <v>0.02148141358596634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001971079637766166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02127960522282204</v>
+      </c>
+      <c r="C53">
+        <v>0.1710785253448717</v>
+      </c>
+      <c r="D53">
+        <v>0.02225108657083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001907795108761715</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009063285608661792</v>
+      </c>
+      <c r="C54">
+        <v>0.05436043755029348</v>
+      </c>
+      <c r="D54">
+        <v>0.04396707049715562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003553434838518456</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009539137448303972</v>
+      </c>
+      <c r="C55">
+        <v>0.1076896106661292</v>
+      </c>
+      <c r="D55">
+        <v>0.03948833503222918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.004197747438572674</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02035749200596042</v>
+      </c>
+      <c r="C56">
+        <v>0.1754864022453279</v>
+      </c>
+      <c r="D56">
+        <v>0.01449343225910798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.003586790977444132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01896241414849736</v>
+      </c>
+      <c r="C58">
+        <v>0.1035812211821142</v>
+      </c>
+      <c r="D58">
+        <v>0.0740374108966754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007742577389062142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.0103725290049371</v>
+      </c>
+      <c r="C59">
+        <v>0.1696494920962076</v>
+      </c>
+      <c r="D59">
+        <v>-0.3411922903417456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.002282800876070967</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02519840659240272</v>
+      </c>
+      <c r="C60">
+        <v>0.2262700506309728</v>
+      </c>
+      <c r="D60">
+        <v>0.01881845522721988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01245427230945319</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001862648386907123</v>
+      </c>
+      <c r="C61">
+        <v>0.09407874059898859</v>
+      </c>
+      <c r="D61">
+        <v>0.058376106147293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1547564652739099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1494812416207306</v>
+      </c>
+      <c r="C62">
+        <v>0.09722938458534086</v>
+      </c>
+      <c r="D62">
+        <v>0.02368524187265943</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001305283879122504</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006308336544665488</v>
+      </c>
+      <c r="C63">
+        <v>0.05254108240539285</v>
+      </c>
+      <c r="D63">
+        <v>0.03502393334456411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002025630451379087</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01569154202503927</v>
+      </c>
+      <c r="C64">
+        <v>0.1046252246980925</v>
+      </c>
+      <c r="D64">
+        <v>0.05688449656224833</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002396391046330785</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01762430584498515</v>
+      </c>
+      <c r="C65">
+        <v>0.1207061604956731</v>
+      </c>
+      <c r="D65">
+        <v>0.02929788219325875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.004464391587052243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01322353760996663</v>
+      </c>
+      <c r="C66">
+        <v>0.1610433705837407</v>
+      </c>
+      <c r="D66">
+        <v>0.1095543569744421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002418634653438394</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01564882531177279</v>
+      </c>
+      <c r="C67">
+        <v>0.07063855887579912</v>
+      </c>
+      <c r="D67">
+        <v>0.02580294282560329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006075784425374734</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001163548455715539</v>
+      </c>
+      <c r="C68">
+        <v>0.08720673224102146</v>
+      </c>
+      <c r="D68">
+        <v>-0.2562164946254749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001098577145321049</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006424074094368466</v>
+      </c>
+      <c r="C69">
+        <v>0.0524185758056818</v>
+      </c>
+      <c r="D69">
+        <v>0.03766922562103927</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0006741735657159657</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002160103509814821</v>
+      </c>
+      <c r="C70">
+        <v>0.006330605149963463</v>
+      </c>
+      <c r="D70">
+        <v>0.001711999784502451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001508751273114314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00581348181792963</v>
+      </c>
+      <c r="C71">
+        <v>0.09176981012148885</v>
+      </c>
+      <c r="D71">
+        <v>-0.3002038274614931</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004217589220648007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01646992119053543</v>
+      </c>
+      <c r="C72">
+        <v>0.1572137195467828</v>
+      </c>
+      <c r="D72">
+        <v>0.01108666360195958</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.00665899223938271</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03157290650349757</v>
+      </c>
+      <c r="C73">
+        <v>0.2826877719735474</v>
+      </c>
+      <c r="D73">
+        <v>0.05463484652680692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.006176854762682699</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001980848743702074</v>
+      </c>
+      <c r="C74">
+        <v>0.1015799765511939</v>
+      </c>
+      <c r="D74">
+        <v>0.03683410321462946</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004380625116123067</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01062600877535755</v>
+      </c>
+      <c r="C75">
+        <v>0.1218670947063027</v>
+      </c>
+      <c r="D75">
+        <v>0.02483251840087316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008585855651050547</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02235829165452547</v>
+      </c>
+      <c r="C76">
+        <v>0.1468838315835476</v>
+      </c>
+      <c r="D76">
+        <v>0.05793224048377578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001292044163364113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02120381695678361</v>
+      </c>
+      <c r="C77">
+        <v>0.1126587489555709</v>
+      </c>
+      <c r="D77">
+        <v>0.05357363982938691</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001098229340004347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01477702492724358</v>
+      </c>
+      <c r="C78">
+        <v>0.09611916614302392</v>
+      </c>
+      <c r="D78">
+        <v>0.08255571264809165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02192883604567612</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03834940133178446</v>
+      </c>
+      <c r="C79">
+        <v>0.1560288511852401</v>
+      </c>
+      <c r="D79">
+        <v>0.03358944415110763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006666411353935582</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01008430180994883</v>
+      </c>
+      <c r="C80">
+        <v>0.03813976997220914</v>
+      </c>
+      <c r="D80">
+        <v>0.03029312329782875</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0007781267371666712</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0157823724136846</v>
+      </c>
+      <c r="C81">
+        <v>0.1295873310960234</v>
+      </c>
+      <c r="D81">
+        <v>0.03819296683962877</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.004403393330987639</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01991421896082208</v>
+      </c>
+      <c r="C82">
+        <v>0.1384932544537146</v>
+      </c>
+      <c r="D82">
+        <v>0.0379751742233103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.00444866920328127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01142456091046067</v>
+      </c>
+      <c r="C83">
+        <v>0.06317440111617124</v>
+      </c>
+      <c r="D83">
+        <v>0.0412685111705131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01091811037840412</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01214004763642251</v>
+      </c>
+      <c r="C84">
+        <v>0.03761424847885057</v>
+      </c>
+      <c r="D84">
+        <v>-0.002237875926616561</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01380798137674547</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02895015951546309</v>
+      </c>
+      <c r="C85">
+        <v>0.12396032857575</v>
+      </c>
+      <c r="D85">
+        <v>0.03766613625227153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003541389311023031</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004329609397588471</v>
+      </c>
+      <c r="C86">
+        <v>0.05024198766446089</v>
+      </c>
+      <c r="D86">
+        <v>0.02719545349497985</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00263585154240385</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01096568414024538</v>
+      </c>
+      <c r="C87">
+        <v>0.1271097443153919</v>
+      </c>
+      <c r="D87">
+        <v>0.07799701894467408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01101035744739697</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002977046664352644</v>
+      </c>
+      <c r="C88">
+        <v>0.06320684910681708</v>
+      </c>
+      <c r="D88">
+        <v>0.02706223005959643</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01232248022696865</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001750337555035761</v>
+      </c>
+      <c r="C89">
+        <v>0.140003943859363</v>
+      </c>
+      <c r="D89">
+        <v>-0.3172150045686764</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00420164871678205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006796656598460972</v>
+      </c>
+      <c r="C90">
+        <v>0.1208590708863709</v>
+      </c>
+      <c r="D90">
+        <v>-0.3116362692421359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001032368413059374</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01034650140669285</v>
+      </c>
+      <c r="C91">
+        <v>0.09946463915026452</v>
+      </c>
+      <c r="D91">
+        <v>0.02433081276997864</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.00946215555593982</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0006408478103577163</v>
+      </c>
+      <c r="C92">
+        <v>0.1348884296376327</v>
+      </c>
+      <c r="D92">
+        <v>-0.3229208017053408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003543780661908964</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004326695486886343</v>
+      </c>
+      <c r="C93">
+        <v>0.1054549088797787</v>
+      </c>
+      <c r="D93">
+        <v>-0.2966510024821084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002769411259505724</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02153200104661311</v>
+      </c>
+      <c r="C94">
+        <v>0.1422529962550786</v>
+      </c>
+      <c r="D94">
+        <v>0.05341722656614181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.002174953228760922</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01647573979032634</v>
+      </c>
+      <c r="C95">
+        <v>0.1216567530814389</v>
+      </c>
+      <c r="D95">
+        <v>0.06543468958511521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.006212179888790808</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03681037342670728</v>
+      </c>
+      <c r="C97">
+        <v>0.2256043384765088</v>
+      </c>
+      <c r="D97">
+        <v>0.001971494109746699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.00278812391632731</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03800784778311115</v>
+      </c>
+      <c r="C98">
+        <v>0.2585722980916659</v>
+      </c>
+      <c r="D98">
+        <v>0.03198243024294702</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9860203683175348</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9812977699340015</v>
+      </c>
+      <c r="C99">
+        <v>-0.1196367473403952</v>
+      </c>
+      <c r="D99">
+        <v>-0.02357280761905894</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001307997257573402</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.00267119449188217</v>
+      </c>
+      <c r="C101">
+        <v>0.04872405271395672</v>
+      </c>
+      <c r="D101">
+        <v>0.01173183544028838</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
